--- a/biology/Médecine/Nadine_Cerf-Bensussan/Nadine_Cerf-Bensussan.xlsx
+++ b/biology/Médecine/Nadine_Cerf-Bensussan/Nadine_Cerf-Bensussan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Cerf-Bensussan est une pédiatre et immunologiste française travaillant pour l'Inserm. Elle est responsable d’une équipe à l’Institut des maladies génétiques Imagine. Elle reçoit le Grand Prix de l'Inserm en 2023.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Cerf-Bensussan effectue son premier stage hospitalier, dans le service d'immunologie et d'hématologie de Claude Griscelli, à l’hôpital Necker-Enfants malades puis des gardes dans le service de réanimation infectieuse de François Vachon à l’ancien hôpital Claude-Bernard[1]. En 1978, elle devient interne dans le service de Claude Griscelli[1]. Elle s'oriente vers un DEA auprès de Delphine Guy-Grand qui étudie l'anatomopathologie et qui travaille sur l'immunité intestinale chez la souris[1]. Son DEA en poche, elle effectue un stage au Massachusetts General Hospital à Boston auprès de Atul Bhan[1]. Elle y met au point son premier anticorps monoclonal contre les lymphocytes intestinaux chez le rat[1]. En 1983, elle reprend son internat à l’hôpital Necker dans l'équipe d'Alain Fischer[1]. Elle soutient sa thèse de doctorat en 1987 sous la direction de Claude Griscelli à l'Université Paris-Diderot sur la lymphocytose duodénale chez les rats et chez les humains[2]. La même année, elle entre à L'INSERM en tant que chargée de recherche[1]. De 2010 à 2012, elle est directrice de recherche à l'Université Pierre et Marie Curie. En 2012, elle rejoint l’Institut des maladies génétiques Imagine et devient en 2020, directrice de recherche de classe exceptionnelle à l’Inserm, et responsable du laboratoire Immunité Intestinale dans ce même institut[3].
-Ses recherches portent sur le microbiote intestinal humain. Elles visent à mieux comprendre les pathologies intestinales, dont la maladie cœliaque induite par le gluten, ainsi que les liens entre le microbiote intestinal et son hôte[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Cerf-Bensussan effectue son premier stage hospitalier, dans le service d'immunologie et d'hématologie de Claude Griscelli, à l’hôpital Necker-Enfants malades puis des gardes dans le service de réanimation infectieuse de François Vachon à l’ancien hôpital Claude-Bernard. En 1978, elle devient interne dans le service de Claude Griscelli. Elle s'oriente vers un DEA auprès de Delphine Guy-Grand qui étudie l'anatomopathologie et qui travaille sur l'immunité intestinale chez la souris. Son DEA en poche, elle effectue un stage au Massachusetts General Hospital à Boston auprès de Atul Bhan. Elle y met au point son premier anticorps monoclonal contre les lymphocytes intestinaux chez le rat. En 1983, elle reprend son internat à l’hôpital Necker dans l'équipe d'Alain Fischer. Elle soutient sa thèse de doctorat en 1987 sous la direction de Claude Griscelli à l'Université Paris-Diderot sur la lymphocytose duodénale chez les rats et chez les humains. La même année, elle entre à L'INSERM en tant que chargée de recherche. De 2010 à 2012, elle est directrice de recherche à l'Université Pierre et Marie Curie. En 2012, elle rejoint l’Institut des maladies génétiques Imagine et devient en 2020, directrice de recherche de classe exceptionnelle à l’Inserm, et responsable du laboratoire Immunité Intestinale dans ce même institut.
+Ses recherches portent sur le microbiote intestinal humain. Elles visent à mieux comprendre les pathologies intestinales, dont la maladie cœliaque induite par le gluten, ainsi que les liens entre le microbiote intestinal et son hôte.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023: Grand prix de l'Institut national de la santé et de la recherche médicale[5]
-2014: Prix Recherche de l'Inserm[6]
-2013: Bourse Advanced Grant du Conseil européen de la recherche[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023: Grand prix de l'Institut national de la santé et de la recherche médicale
+2014: Prix Recherche de l'Inserm
+2013: Bourse Advanced Grant du Conseil européen de la recherche</t>
         </is>
       </c>
     </row>
